--- a/log.xlsx
+++ b/log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Derek\PROG280-Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7BB3E-F947-417D-AE20-8E1ABA0CBA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="4980" yWindow="6855" windowWidth="14985" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>PROG280 Final Project Log</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -115,12 +113,33 @@
   </si>
   <si>
     <t>Struggling on where to begin this task</t>
+  </si>
+  <si>
+    <t>Chess Log</t>
+  </si>
+  <si>
+    <t>What I plan to do with the new and improved chess project, is make it move expandable and allow for more features such as an AI player, TCP/IP muliplayer, and many more.</t>
+  </si>
+  <si>
+    <t>Creating project base</t>
+  </si>
+  <si>
+    <t>Extract windows form chess logic  to a new, refactored class based chess library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To begin this project, I am taking my existing windows form chess logic and creating a universal c# chess library that is stored in a dedicated class library. I am using existing logic to speed up the process. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~ 1 hour - </t>
+  </si>
+  <si>
+    <t>Chess Project Log</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,8 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -207,7 +229,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,30 +298,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:F187" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:F187"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:F187" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A2:F187" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Task" dataDxfId="15"/>
-    <tableColumn id="2" name="Feature" dataDxfId="14"/>
-    <tableColumn id="3" name="Status" dataDxfId="13"/>
-    <tableColumn id="4" name="Duration" dataDxfId="12"/>
-    <tableColumn id="5" name="Description" dataDxfId="11"/>
-    <tableColumn id="6" name="Comments" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Duration" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comments" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A2:F187" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A2:F187"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table24" displayName="Table24" ref="A2:F187" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F187" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Task" dataDxfId="7"/>
-    <tableColumn id="2" name="Feature" dataDxfId="6"/>
-    <tableColumn id="3" name="Status" dataDxfId="5"/>
-    <tableColumn id="4" name="Duration" dataDxfId="4"/>
-    <tableColumn id="5" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" name="Comments" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Task" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Feature" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Status" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Duration" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,51 +589,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -636,119 +675,119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7BB3E-F947-417D-AE20-8E1ABA0CBA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73211B6A-9C12-431B-B7DF-CA2601D69506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="6855" windowWidth="14985" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Struggling on where to begin this task</t>
   </si>
   <si>
-    <t>Chess Log</t>
-  </si>
-  <si>
     <t>What I plan to do with the new and improved chess project, is make it move expandable and allow for more features such as an AI player, TCP/IP muliplayer, and many more.</t>
   </si>
   <si>
@@ -130,10 +127,19 @@
     <t xml:space="preserve">To begin this project, I am taking my existing windows form chess logic and creating a universal c# chess library that is stored in a dedicated class library. I am using existing logic to speed up the process. </t>
   </si>
   <si>
-    <t xml:space="preserve">~ 1 hour - </t>
-  </si>
-  <si>
     <t>Chess Project Log</t>
+  </si>
+  <si>
+    <t>~ 3 hours</t>
+  </si>
+  <si>
+    <t>Game, Board, Player, and Pieces (mostly setting up key components)</t>
+  </si>
+  <si>
+    <t>~4 hours - Implement Pieces ('Piece' is abstract class, 'Pawn', 'Rook', 'Queen', etc are derived classes, Created 'Game' class that takes parameters 'board', 'p1', 'p2', create 'Board' and 'Player' classes, remove unnessesary / redundant code</t>
+  </si>
+  <si>
+    <t>~3 hours</t>
   </si>
 </sst>
 </file>
@@ -590,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -638,19 +644,27 @@
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73211B6A-9C12-431B-B7DF-CA2601D69506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83AEA0-5B07-4411-9891-53B9BF41D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="6855" windowWidth="14985" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Chess Project Log</t>
-  </si>
-  <si>
-    <t>~ 3 hours</t>
   </si>
   <si>
     <t>Game, Board, Player, and Pieces (mostly setting up key components)</t>
@@ -647,13 +644,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>32</v>
@@ -664,7 +661,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/log.xlsx
+++ b/log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.repos\Chess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\russ\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83AEA0-5B07-4411-9891-53B9BF41D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11227F-85C7-49DE-A085-8E7E62D5B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="6855" windowWidth="14985" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -118,12 +118,6 @@
     <t>What I plan to do with the new and improved chess project, is make it move expandable and allow for more features such as an AI player, TCP/IP muliplayer, and many more.</t>
   </si>
   <si>
-    <t>Creating project base</t>
-  </si>
-  <si>
-    <t>Extract windows form chess logic  to a new, refactored class based chess library</t>
-  </si>
-  <si>
     <t xml:space="preserve">To begin this project, I am taking my existing windows form chess logic and creating a universal c# chess library that is stored in a dedicated class library. I am using existing logic to speed up the process. </t>
   </si>
   <si>
@@ -136,7 +130,28 @@
     <t>~4 hours - Implement Pieces ('Piece' is abstract class, 'Pawn', 'Rook', 'Queen', etc are derived classes, Created 'Game' class that takes parameters 'board', 'p1', 'p2', create 'Board' and 'Player' classes, remove unnessesary / redundant code</t>
   </si>
   <si>
-    <t>~3 hours</t>
+    <t>Extract windows form chess logic  to a new, refactored class based chess library that can be used for any C# based project</t>
+  </si>
+  <si>
+    <t>Refactor 'GetMoves()' method for each piece</t>
+  </si>
+  <si>
+    <t>Completed Mar 26</t>
+  </si>
+  <si>
+    <t>Completed on Mar 25</t>
+  </si>
+  <si>
+    <t>Change the 'Get Moves' abstract method so it is much more simplified</t>
+  </si>
+  <si>
+    <t>The technique I used was to give each piece a template. The template defined what directions were valid for the specific piece. Ex. Pawn's template was 1 forward, King would be 1 in all directions. Also you would define a range. In my case, the kings, knights, and pawns range would be 1, and queen, bishop and rook would have a range of the size of the board.</t>
+  </si>
+  <si>
+    <t>The image to the right is a screenshot of how the queen class looks, the layout is similar for all other piece classes, you can see that the templates define the direction on the plane of a 2d array (which is the chessboard). Below there is a method held in a different utility class that takes the board, current piece, range, and templates to return a list of moves on the board.</t>
+  </si>
+  <si>
+    <t>~2 hours - Find a new structure to generate my pieces moves. It ended up being extremely more efficient than before where I had tons of if statements to find the moves.</t>
   </si>
 </sst>
 </file>
@@ -222,6 +237,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -230,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,6 +313,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268431</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>284237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3258600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC437A7-224C-8592-3034-EF6714810DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9308522" y="3098442"/>
+          <a:ext cx="5221432" cy="2974363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,31 +659,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,29 +703,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="285" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -670,8 +749,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -684,27 +764,27 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -744,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -764,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -784,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\russ\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11227F-85C7-49DE-A085-8E7E62D5B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F484A3-65AE-4016-9BAE-A7C768C48856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -136,22 +136,55 @@
     <t>Refactor 'GetMoves()' method for each piece</t>
   </si>
   <si>
-    <t>Completed Mar 26</t>
-  </si>
-  <si>
     <t>Completed on Mar 25</t>
   </si>
   <si>
     <t>Change the 'Get Moves' abstract method so it is much more simplified</t>
   </si>
   <si>
-    <t>The technique I used was to give each piece a template. The template defined what directions were valid for the specific piece. Ex. Pawn's template was 1 forward, King would be 1 in all directions. Also you would define a range. In my case, the kings, knights, and pawns range would be 1, and queen, bishop and rook would have a range of the size of the board.</t>
-  </si>
-  <si>
     <t>The image to the right is a screenshot of how the queen class looks, the layout is similar for all other piece classes, you can see that the templates define the direction on the plane of a 2d array (which is the chessboard). Below there is a method held in a different utility class that takes the board, current piece, range, and templates to return a list of moves on the board.</t>
   </si>
   <si>
     <t>~2 hours - Find a new structure to generate my pieces moves. It ended up being extremely more efficient than before where I had tons of if statements to find the moves.</t>
+  </si>
+  <si>
+    <t>The technique I used was to give each piece a template. The template defined what directions were valid for the specific piece. Ex. Pawn's template was 1 forward, King bishop, queen would be  all directions. Also you would define a range. In my case, the kings, knights, and pawns range would be 1, and queen, bishop and rook would have a range of the size of the board.</t>
+  </si>
+  <si>
+    <t>Completed on Mar 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a TCP server </t>
+  </si>
+  <si>
+    <t>Started Apr 2</t>
+  </si>
+  <si>
+    <t>~2 hours</t>
+  </si>
+  <si>
+    <t>I used the assignment 6 version of the TCP server class as a template. Once I implemented it, I started refactor most of the code to match the project scope (such as changing the packet message type enum to have items related to a chess game).</t>
+  </si>
+  <si>
+    <t>Once I got the basic implementation of the server, I started looking for ways to simplify the code using youtube tutorials and online docs. When I felt that the code was clean enough. I was able to start a TCP server on a console app with only a few lines of code.</t>
+  </si>
+  <si>
+    <t>Start Implementing TCP Server</t>
+  </si>
+  <si>
+    <t>Start Creating TCP Client Class</t>
+  </si>
+  <si>
+    <t>TCP Client Class that can send messages to server</t>
+  </si>
+  <si>
+    <t>~1 hour</t>
+  </si>
+  <si>
+    <t>For the client, I used the assignment 6 code as a template and made changes accordingly, I spend a lot of time searching online for solutions to simplify the code.</t>
+  </si>
+  <si>
+    <t>For both my Client and Server classes I had just made, I am storing them inside my Chess core library under the Core.TCP namespace. My goal is to create a code base where I will be able to implement all aspects of my chess library on every C# platform.</t>
   </si>
 </sst>
 </file>
@@ -255,25 +288,25 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -365,30 +398,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:F187" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:F187" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0">
   <autoFilter ref="A2:F187" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Duration" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comments" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Duration" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comments" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table24" displayName="Table24" ref="A2:F187" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table24" displayName="Table24" ref="A2:F187" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A2:F187" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Task" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Feature" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Status" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Duration" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Task" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Feature" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Status" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Duration" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Comments" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -657,9 +690,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -711,7 +744,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -724,24 +757,1512 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="285" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\russ\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F484A3-65AE-4016-9BAE-A7C768C48856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373AEB1-0ED8-4E91-8AB1-B315BAF3B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -185,6 +185,42 @@
   </si>
   <si>
     <t>For both my Client and Server classes I had just made, I am storing them inside my Chess core library under the Core.TCP namespace. My goal is to create a code base where I will be able to implement all aspects of my chess library on every C# platform.</t>
+  </si>
+  <si>
+    <t>Chess server console app</t>
+  </si>
+  <si>
+    <t>Create a TCP server implementation as a console application</t>
+  </si>
+  <si>
+    <t>Started Apr 4</t>
+  </si>
+  <si>
+    <t>After making sure my TCP Server class (located in the chess core library) was set up, I created a console app and added the server to it.</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>My plan with the server is this: When a client clicks host game button, the server app and client form will start up and connect to the server</t>
+  </si>
+  <si>
+    <t>~2 hour</t>
+  </si>
+  <si>
+    <t>Improve functionality of tcp server</t>
+  </si>
+  <si>
+    <t>Server will have the logic of a chess game and will be controlled by clients</t>
+  </si>
+  <si>
+    <t>started Apr 6</t>
+  </si>
+  <si>
+    <t>The server app will have a chess operating inside of it and will broadcast any actions that are made to the 2 players</t>
+  </si>
+  <si>
+    <t>Ex. If a player makes a move both clients will get the updated board</t>
   </si>
 </sst>
 </file>
@@ -288,25 +324,7 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -330,7 +348,25 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -398,30 +434,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:F187" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:F187" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A2:F187" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Duration" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Duration" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comments" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table24" displayName="Table24" ref="A2:F187" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table24" displayName="Table24" ref="A2:F187" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:F187" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Task" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Feature" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Status" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Duration" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Comments" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Task" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Feature" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Status" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Duration" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -692,21 +728,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -716,7 +752,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -756,7 +792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="285" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -776,7 +812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -796,7 +832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -816,23 +852,47 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -840,7 +900,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -848,7 +908,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -856,7 +916,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -864,7 +924,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -872,7 +932,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -880,7 +940,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -888,7 +948,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -896,7 +956,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -904,7 +964,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -912,7 +972,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -920,7 +980,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -928,7 +988,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -936,7 +996,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -944,7 +1004,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -952,7 +1012,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -960,7 +1020,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -968,7 +1028,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -976,7 +1036,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -984,7 +1044,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -992,7 +1052,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1000,7 +1060,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1008,7 +1068,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1016,7 +1076,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1024,7 +1084,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1032,7 +1092,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1040,7 +1100,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1048,7 +1108,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1056,7 +1116,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1064,7 +1124,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1072,7 +1132,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1080,7 +1140,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1088,7 +1148,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1096,7 +1156,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1104,7 +1164,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1112,7 +1172,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1120,7 +1180,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1128,7 +1188,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1136,7 +1196,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1144,7 +1204,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1152,7 +1212,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1160,7 +1220,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1168,7 +1228,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1176,7 +1236,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1184,7 +1244,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1192,7 +1252,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1200,7 +1260,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1208,7 +1268,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1216,7 +1276,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1224,7 +1284,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1232,7 +1292,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1240,7 +1300,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1248,7 +1308,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1256,7 +1316,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1264,7 +1324,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1272,7 +1332,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1280,7 +1340,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1288,7 +1348,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1296,7 +1356,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1304,7 +1364,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1312,7 +1372,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1320,7 +1380,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1328,7 +1388,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1336,7 +1396,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1344,7 +1404,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1352,7 +1412,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1360,7 +1420,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1368,7 +1428,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1376,7 +1436,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1384,7 +1444,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1392,7 +1452,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1400,7 +1460,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1408,7 +1468,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1416,7 +1476,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1424,7 +1484,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1432,7 +1492,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1440,7 +1500,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1448,7 +1508,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1456,7 +1516,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1464,7 +1524,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1472,7 +1532,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1480,7 +1540,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1488,7 +1548,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1496,7 +1556,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1504,7 +1564,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1512,7 +1572,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1520,7 +1580,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1528,7 +1588,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1536,7 +1596,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1544,7 +1604,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1552,7 +1612,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1560,7 +1620,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1568,7 +1628,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1576,7 +1636,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1584,7 +1644,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1592,7 +1652,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1600,7 +1660,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1608,7 +1668,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1616,7 +1676,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1624,7 +1684,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1632,7 +1692,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1640,7 +1700,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1648,7 +1708,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1656,7 +1716,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1664,7 +1724,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1672,7 +1732,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1680,7 +1740,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1688,7 +1748,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1696,7 +1756,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1704,7 +1764,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1712,7 +1772,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1720,7 +1780,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1728,7 +1788,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1736,7 +1796,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1744,7 +1804,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1752,7 +1812,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1760,7 +1820,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1768,7 +1828,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1776,7 +1836,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1784,7 +1844,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1792,7 +1852,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1800,7 +1860,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1808,7 +1868,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -1816,7 +1876,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1824,7 +1884,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -1832,7 +1892,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1840,7 +1900,7 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1848,7 +1908,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1856,7 +1916,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -1864,7 +1924,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -1872,7 +1932,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -1880,7 +1940,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -1888,7 +1948,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -1896,7 +1956,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -1904,7 +1964,7 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -1912,7 +1972,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -1920,7 +1980,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -1928,7 +1988,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -1936,7 +1996,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -1944,7 +2004,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -1952,7 +2012,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -1960,7 +2020,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -1968,7 +2028,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -1976,7 +2036,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -1984,7 +2044,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -1992,7 +2052,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2000,7 +2060,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2008,7 +2068,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2016,7 +2076,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2024,7 +2084,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2032,7 +2092,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2040,7 +2100,7 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2048,7 +2108,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2056,7 +2116,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2064,7 +2124,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2072,7 +2132,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2080,7 +2140,7 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2088,7 +2148,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2096,7 +2156,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2104,7 +2164,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2112,7 +2172,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2120,7 +2180,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2128,7 +2188,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2136,7 +2196,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2144,7 +2204,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2152,7 +2212,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2160,7 +2220,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2168,7 +2228,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2176,7 +2236,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2184,7 +2244,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2192,7 +2252,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2200,7 +2260,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2208,7 +2268,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2216,7 +2276,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2224,7 +2284,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2232,7 +2292,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2240,7 +2300,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2248,7 +2308,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2256,7 +2316,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2285,17 +2345,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2305,7 +2365,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2345,7 +2405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2365,7 +2425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2385,7 +2445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\russ\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373AEB1-0ED8-4E91-8AB1-B315BAF3B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD64A983-0F28-4347-B8F0-8BB546A4B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>Task</t>
   </si>
@@ -199,28 +199,76 @@
     <t>After making sure my TCP Server class (located in the chess core library) was set up, I created a console app and added the server to it.</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>My plan with the server is this: When a client clicks host game button, the server app and client form will start up and connect to the server</t>
   </si>
   <si>
     <t>~2 hour</t>
   </si>
   <si>
-    <t>Improve functionality of tcp server</t>
-  </si>
-  <si>
     <t>Server will have the logic of a chess game and will be controlled by clients</t>
   </si>
   <si>
     <t>started Apr 6</t>
   </si>
   <si>
-    <t>The server app will have a chess operating inside of it and will broadcast any actions that are made to the 2 players</t>
-  </si>
-  <si>
     <t>Ex. If a player makes a move both clients will get the updated board</t>
+  </si>
+  <si>
+    <t>Work on  UDP functionality</t>
+  </si>
+  <si>
+    <t>Improve functionality of UDP server</t>
+  </si>
+  <si>
+    <t>The server application will have a chess operating inside of it and will broadcast any actions that are made to the 2 players</t>
+  </si>
+  <si>
+    <t>Spent time refactoring code and testing 2 udp clients that are connected to 1 server</t>
+  </si>
+  <si>
+    <t>Started Apr 8</t>
+  </si>
+  <si>
+    <t>~5 hours</t>
+  </si>
+  <si>
+    <t>During this time, I worked on the projects UDP features, There was a lot of tweaking and testing. I mostly configured the server side and what it does with the packets</t>
+  </si>
+  <si>
+    <t>I have a packet class with message types such as GameUpdate Request / GameUpdateResponse where the user wil send a request whenever they need an updated and the server will respond by sending back the game data.</t>
+  </si>
+  <si>
+    <t>UDP Client side functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started Apr 8 </t>
+  </si>
+  <si>
+    <t>~4 hours</t>
+  </si>
+  <si>
+    <t>The client side app contains a board but it is only there to hold the current game state that is received from the server. When a game request happens, the game data is sent as json over the connection.</t>
+  </si>
+  <si>
+    <t>upon connecting to a server the users will request a game update</t>
+  </si>
+  <si>
+    <t>Additionally, when the server starts, I will wait for clients to join and will assign player 1 and player 2, once the 2 players are assigned the game will start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP Client side making moves </t>
+  </si>
+  <si>
+    <t>The client app can make and send moves to the server where it will refresh both players screen once the move is made</t>
+  </si>
+  <si>
+    <t>Started Apr 10</t>
+  </si>
+  <si>
+    <t>~3 hours</t>
+  </si>
+  <si>
+    <t>When both clients screen loads, they can make a move (if it is their turn), the server will receive the 'Move' packet type to then update and reply to both clients</t>
   </si>
 </sst>
 </file>
@@ -728,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,57 +911,91 @@
         <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\russ\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD64A983-0F28-4347-B8F0-8BB546A4B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC63E6-35BB-47E4-B3DE-10CD30DF259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>Task</t>
   </si>
@@ -269,6 +269,36 @@
   </si>
   <si>
     <t>When both clients screen loads, they can make a move (if it is their turn), the server will receive the 'Move' packet type to then update and reply to both clients</t>
+  </si>
+  <si>
+    <t>Game logic improvments</t>
+  </si>
+  <si>
+    <t>Chess logic that includes when a king is in check and move validation for the king to escape a checked state</t>
+  </si>
+  <si>
+    <t>Started Apr 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To complete this task I looked at several topics and resources online. When a king is in check, it forces the checked player to make a move that will allow the king to escape the checked state. </t>
+  </si>
+  <si>
+    <t>To implement this, I used psuedocode that ChatGPT generated me. Essentially what you have to do is check each attacking players moves and if one of those moves land on the kings spot, that means the king is in check. The method to check for this is after each move.</t>
+  </si>
+  <si>
+    <t>More game logic improvments</t>
+  </si>
+  <si>
+    <t>Add the logic to force the checked player to cover the line of sight where a piece is checking a king</t>
+  </si>
+  <si>
+    <t>Started Apr 12</t>
+  </si>
+  <si>
+    <t>The way you check for this is basically creating a temporary board with the current game state, then moving each piece to a location that it would normally be able to move to. Each time a move like that is made, there will be a check if the king is still in a checked state, if they are not checked in that given position add, add that position to the list of valid moves.</t>
+  </si>
+  <si>
+    <t>This task was probably the most difficult to understand because it requires you to go into the future and check every scenario to see if the position will protect your king piece. However, with some video tutorials and psuedocode from ChatGpt, I was able to implement it into my project. Now the next steps are to check for the checkmate status of a game.</t>
   </si>
 </sst>
 </file>
@@ -776,21 +806,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -800,7 +830,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="171" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -840,7 +870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="285" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -860,7 +890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -880,7 +910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -900,7 +930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="114" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -920,7 +950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="114" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -940,7 +970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -960,7 +990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -980,7 +1010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -998,23 +1028,47 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1022,7 +1076,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1030,7 +1084,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1038,7 +1092,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1046,7 +1100,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1054,7 +1108,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1062,7 +1116,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1070,7 +1124,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1078,7 +1132,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1086,7 +1140,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1094,7 +1148,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1102,7 +1156,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1110,7 +1164,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1118,7 +1172,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1126,7 +1180,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1134,7 +1188,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1142,7 +1196,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1150,7 +1204,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1158,7 +1212,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1166,7 +1220,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1174,7 +1228,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1182,7 +1236,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1190,7 +1244,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1198,7 +1252,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1206,7 +1260,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1214,7 +1268,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1222,7 +1276,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1230,7 +1284,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1238,7 +1292,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1246,7 +1300,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1254,7 +1308,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1262,7 +1316,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1270,7 +1324,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1278,7 +1332,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1286,7 +1340,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1294,7 +1348,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1302,7 +1356,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1310,7 +1364,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1318,7 +1372,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1326,7 +1380,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1334,7 +1388,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1342,7 +1396,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1350,7 +1404,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1358,7 +1412,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1366,7 +1420,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1374,7 +1428,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1382,7 +1436,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1390,7 +1444,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1398,7 +1452,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1406,7 +1460,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1414,7 +1468,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1422,7 +1476,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1430,7 +1484,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1438,7 +1492,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1446,7 +1500,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1454,7 +1508,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1462,7 +1516,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1470,7 +1524,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1478,7 +1532,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1486,7 +1540,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1494,7 +1548,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1502,7 +1556,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1510,7 +1564,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1518,7 +1572,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1526,7 +1580,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1534,7 +1588,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1542,7 +1596,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1550,7 +1604,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1558,7 +1612,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1566,7 +1620,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1574,7 +1628,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1582,7 +1636,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1590,7 +1644,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1598,7 +1652,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1606,7 +1660,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1614,7 +1668,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1622,7 +1676,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1630,7 +1684,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1638,7 +1692,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1646,7 +1700,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1654,7 +1708,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1662,7 +1716,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1670,7 +1724,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1678,7 +1732,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1686,7 +1740,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1694,7 +1748,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1702,7 +1756,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1710,7 +1764,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1718,7 +1772,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1726,7 +1780,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1734,7 +1788,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1742,7 +1796,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1750,7 +1804,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1758,7 +1812,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1766,7 +1820,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1774,7 +1828,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1782,7 +1836,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1790,7 +1844,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1798,7 +1852,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1806,7 +1860,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1814,7 +1868,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1822,7 +1876,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1830,7 +1884,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1838,7 +1892,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1846,7 +1900,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1854,7 +1908,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1862,7 +1916,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1870,7 +1924,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1878,7 +1932,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1886,7 +1940,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1894,7 +1948,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1902,7 +1956,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1910,7 +1964,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1918,7 +1972,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1926,7 +1980,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1934,7 +1988,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1942,7 +1996,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1950,7 +2004,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -1958,7 +2012,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1966,7 +2020,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -1974,7 +2028,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1982,7 +2036,7 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1990,7 +2044,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1998,7 +2052,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2006,7 +2060,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2014,7 +2068,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2022,7 +2076,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2030,7 +2084,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2038,7 +2092,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2046,7 +2100,7 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2054,7 +2108,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2062,7 +2116,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2070,7 +2124,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2078,7 +2132,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2086,7 +2140,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2094,7 +2148,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2102,7 +2156,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2110,7 +2164,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2118,7 +2172,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2126,7 +2180,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2134,7 +2188,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2142,7 +2196,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2150,7 +2204,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2158,7 +2212,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2166,7 +2220,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2174,7 +2228,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2182,7 +2236,7 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2190,7 +2244,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2198,7 +2252,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2206,7 +2260,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2214,7 +2268,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2222,7 +2276,7 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2230,7 +2284,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2238,7 +2292,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2246,7 +2300,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2254,7 +2308,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2262,7 +2316,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2270,7 +2324,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2278,7 +2332,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2286,7 +2340,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2294,7 +2348,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2302,7 +2356,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2310,7 +2364,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2318,7 +2372,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2326,7 +2380,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2334,7 +2388,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2342,7 +2396,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2350,7 +2404,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2358,7 +2412,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2366,7 +2420,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2374,7 +2428,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2382,7 +2436,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2390,7 +2444,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2398,7 +2452,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2427,17 +2481,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2447,7 +2501,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2487,7 +2541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2527,7 +2581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>

--- a/log.xlsx
+++ b/log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\russ\repos\Chess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC63E6-35BB-47E4-B3DE-10CD30DF259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32050C64-50D9-41DA-AA63-D182610FDC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>Task</t>
   </si>
@@ -299,6 +299,63 @@
   </si>
   <si>
     <t>This task was probably the most difficult to understand because it requires you to go into the future and check every scenario to see if the position will protect your king piece. However, with some video tutorials and psuedocode from ChatGpt, I was able to implement it into my project. Now the next steps are to check for the checkmate status of a game.</t>
+  </si>
+  <si>
+    <t>logic improvments</t>
+  </si>
+  <si>
+    <t>Finalize in check logic for chess game</t>
+  </si>
+  <si>
+    <t>Completed Apr 12</t>
+  </si>
+  <si>
+    <t>During this period, I spend time implementing the rest of the logic needed to complete this feature. I spent lots of time writing xUnit tests as well</t>
+  </si>
+  <si>
+    <t>The next step is to implement logic for checkmate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkmate logic </t>
+  </si>
+  <si>
+    <t>Checkmate logic</t>
+  </si>
+  <si>
+    <t>Started Apr 14</t>
+  </si>
+  <si>
+    <t>Spent time today looking at ways I can tackle this feature. I watched some tutorials on how a guy implemented checkmate to their chess engine in python, then I wen to chatGPT and asked to generate some psuedocode. Then I started coding it into my own project.</t>
+  </si>
+  <si>
+    <t>Probably the most difficult in terms of making it function properly because it required me to be able to check for future move and calculate the position of the king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalize checkmate logic </t>
+  </si>
+  <si>
+    <t>Completed Apr 15</t>
+  </si>
+  <si>
+    <t>At this point I was able to move out of check once a king was put in check, but I still had to figure out how to prevent moves that would put the king in a checked position.</t>
+  </si>
+  <si>
+    <t>To complete this, I used a method I had created the day before called 'IsKingInCheck()'. It would take the move before it is made and place it on a temp board to check if doing the move resulted in a checked position. I simply used this where the move is validated inside the 'MakeMove' method.</t>
+  </si>
+  <si>
+    <t>implement game over</t>
+  </si>
+  <si>
+    <t>Game over feature</t>
+  </si>
+  <si>
+    <t>Started Apr 15</t>
+  </si>
+  <si>
+    <t>~1 hours</t>
+  </si>
+  <si>
+    <t>This was fairly simple. All I had to do was when a player makes a move and that move checks the king, if the checked player has no moves, it is game over.</t>
   </si>
 </sst>
 </file>
@@ -806,21 +863,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -830,7 +887,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -870,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="285" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -890,7 +947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -910,7 +967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -930,7 +987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -950,7 +1007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -970,7 +1027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -990,7 +1047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -1010,7 +1067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -1028,7 +1085,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -1048,7 +1105,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
@@ -1068,39 +1125,85 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1108,7 +1211,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1116,7 +1219,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1124,7 +1227,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1132,7 +1235,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1140,7 +1243,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1148,7 +1251,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1156,7 +1259,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1164,7 +1267,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1172,7 +1275,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1180,7 +1283,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1188,7 +1291,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1196,7 +1299,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1204,7 +1307,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1212,7 +1315,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1220,7 +1323,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1228,7 +1331,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1236,7 +1339,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1244,7 +1347,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1252,7 +1355,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1260,7 +1363,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1268,7 +1371,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1276,7 +1379,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1284,7 +1387,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1292,7 +1395,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1300,7 +1403,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1308,7 +1411,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1316,7 +1419,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1324,7 +1427,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1332,7 +1435,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1340,7 +1443,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1348,7 +1451,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1356,7 +1459,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1364,7 +1467,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1372,7 +1475,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1380,7 +1483,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1388,7 +1491,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1396,7 +1499,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1404,7 +1507,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1412,7 +1515,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1420,7 +1523,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1428,7 +1531,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1436,7 +1539,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1444,7 +1547,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1452,7 +1555,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1460,7 +1563,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1468,7 +1571,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1476,7 +1579,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1484,7 +1587,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1492,7 +1595,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1500,7 +1603,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1508,7 +1611,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1516,7 +1619,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1524,7 +1627,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1532,7 +1635,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1540,7 +1643,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1548,7 +1651,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1556,7 +1659,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1564,7 +1667,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1572,7 +1675,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1580,7 +1683,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1588,7 +1691,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1596,7 +1699,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1604,7 +1707,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1612,7 +1715,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1620,7 +1723,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1628,7 +1731,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1636,7 +1739,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1644,7 +1747,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1652,7 +1755,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1660,7 +1763,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1668,7 +1771,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1676,7 +1779,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1684,7 +1787,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1692,7 +1795,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1700,7 +1803,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1708,7 +1811,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1716,7 +1819,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1724,7 +1827,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1732,7 +1835,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1740,7 +1843,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1748,7 +1851,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1756,7 +1859,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1764,7 +1867,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1772,7 +1875,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1780,7 +1883,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1788,7 +1891,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1796,7 +1899,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1804,7 +1907,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1812,7 +1915,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1820,7 +1923,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1828,7 +1931,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1836,7 +1939,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1844,7 +1947,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1852,7 +1955,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1860,7 +1963,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1868,7 +1971,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1876,7 +1979,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1884,7 +1987,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1892,7 +1995,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1900,7 +2003,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1908,7 +2011,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1916,7 +2019,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1924,7 +2027,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1932,7 +2035,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1940,7 +2043,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1948,7 +2051,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1956,7 +2059,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1964,7 +2067,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1972,7 +2075,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1980,7 +2083,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1988,7 +2091,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1996,7 +2099,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2004,7 +2107,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2012,7 +2115,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2020,7 +2123,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2028,7 +2131,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2036,7 +2139,7 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2044,7 +2147,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2052,7 +2155,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2060,7 +2163,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2068,7 +2171,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2076,7 +2179,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2084,7 +2187,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2092,7 +2195,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2100,7 +2203,7 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2108,7 +2211,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2116,7 +2219,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2124,7 +2227,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2132,7 +2235,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2140,7 +2243,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2148,7 +2251,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2156,7 +2259,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2164,7 +2267,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2172,7 +2275,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2180,7 +2283,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2188,7 +2291,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2196,7 +2299,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2204,7 +2307,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2212,7 +2315,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2220,7 +2323,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2228,7 +2331,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2236,7 +2339,7 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2244,7 +2347,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2252,7 +2355,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2260,7 +2363,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2268,7 +2371,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2276,7 +2379,7 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2284,7 +2387,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2292,7 +2395,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2300,7 +2403,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2308,7 +2411,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2316,7 +2419,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2324,7 +2427,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2332,7 +2435,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2340,7 +2443,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2348,7 +2451,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2356,7 +2459,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2364,7 +2467,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2372,7 +2475,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2380,7 +2483,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2388,7 +2491,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2396,7 +2499,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2404,7 +2507,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2412,7 +2515,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2420,7 +2523,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2428,7 +2531,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2436,7 +2539,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2444,7 +2547,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2452,7 +2555,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2481,17 +2584,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.4" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2501,7 +2604,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2521,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2541,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2581,7 +2684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>

--- a/log.xlsx
+++ b/log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.repos\Chess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\russ\repos\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32050C64-50D9-41DA-AA63-D182610FDC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4E2D31-58A4-4DBC-8DDF-09A394A34FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>This was fairly simple. All I had to do was when a player makes a move and that move checks the king, if the checked player has no moves, it is game over.</t>
+  </si>
+  <si>
+    <t>Test game and hand in</t>
+  </si>
+  <si>
+    <t>Spent time testing the app between multiple computers across the network</t>
+  </si>
+  <si>
+    <t>started april 20</t>
+  </si>
+  <si>
+    <t>Most of the time was spend make tweaks in the server and client side apps, making sure it will work during presentation</t>
   </si>
 </sst>
 </file>
@@ -864,7 +876,7 @@
   <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,12 +1215,22 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
